--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业平均用工人数.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业平均用工人数.xlsx
@@ -1970,7 +1970,7 @@
         <v>0.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.8</v>
+        <v>78.39999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>76.09999999999999</v>
@@ -2024,7 +2024,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AU3" t="n">
-        <v>161.9</v>
+        <v>157.1</v>
       </c>
       <c r="AV3" t="n">
         <v>152.2</v>
@@ -2033,7 +2033,7 @@
         <v>-7.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -2042,7 +2042,7 @@
         <v>-8.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="BB3" t="n">
         <v>77.59999999999999</v>
@@ -2060,7 +2060,7 @@
         <v>-5.3</v>
       </c>
       <c r="BG3" t="n">
-        <v>47.8</v>
+        <v>47.39999999999998</v>
       </c>
       <c r="BH3" t="n">
         <v>48.1</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>335.6</v>
+        <v>333.8</v>
       </c>
       <c r="BW3" t="n">
         <v>333.2</v>
@@ -2114,7 +2114,7 @@
         <v>-1.1</v>
       </c>
       <c r="BY3" t="n">
-        <v>255.6</v>
+        <v>254.2</v>
       </c>
       <c r="BZ3" t="n">
         <v>253</v>
@@ -2141,7 +2141,7 @@
         <v>-13</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.7999999999999829</v>
+        <v>0.5999999999999659</v>
       </c>
       <c r="CI3" t="n">
         <v>77.40000000000001</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O4" t="n">
         <v>252.6</v>
@@ -2490,7 +2490,7 @@
         <v>-4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>327.0000000000001</v>
+        <v>323.8000000000001</v>
       </c>
       <c r="U4" t="n">
         <v>320.2</v>
@@ -2499,7 +2499,7 @@
         <v>-3.1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999443</v>
       </c>
       <c r="X4" t="n">
         <v>39.4</v>
@@ -2508,7 +2508,7 @@
         <v>-5.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>191.5</v>
+        <v>190.9</v>
       </c>
       <c r="AA4" t="n">
         <v>194.8</v>
@@ -2553,7 +2553,7 @@
         <v>-3.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="AP4" t="n">
         <v>29.6</v>
@@ -2571,7 +2571,7 @@
         <v>-10.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>164.1</v>
+        <v>2.199999999999989</v>
       </c>
       <c r="AV4" t="n">
         <v>153.6</v>
@@ -2607,7 +2607,7 @@
         <v>-4.4</v>
       </c>
       <c r="BG4" t="n">
-        <v>48</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="BH4" t="n">
         <v>48.1</v>
@@ -2652,7 +2652,7 @@
         <v>0.6</v>
       </c>
       <c r="BV4" t="n">
-        <v>335.3</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="BW4" t="n">
         <v>331.9</v>
@@ -2661,7 +2661,7 @@
         <v>-1.4</v>
       </c>
       <c r="BY4" t="n">
-        <v>255.1</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="BZ4" t="n">
         <v>251.6</v>
@@ -2751,7 +2751,7 @@
         <v>-5.8</v>
       </c>
       <c r="DC4" t="n">
-        <v>112.7</v>
+        <v>111.7</v>
       </c>
       <c r="DD4" t="n">
         <v>108.7</v>
@@ -2769,7 +2769,7 @@
         <v>-4.2</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.3000000000000008</v>
+        <v>0.1000000000000016</v>
       </c>
       <c r="DJ4" t="n">
         <v>17.5</v>
@@ -2805,7 +2805,7 @@
         <v>-4</v>
       </c>
       <c r="DU4" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="DV4" t="n">
         <v>26.1</v>
@@ -2814,7 +2814,7 @@
         <v>-6.8</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.5999999999999659</v>
+        <v>0.3999999999999205</v>
       </c>
       <c r="DY4" t="n">
         <v>159.5</v>
@@ -2832,7 +2832,7 @@
         <v>-3.4</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.3000000000000042</v>
+        <v>0.1000000000000084</v>
       </c>
       <c r="EE4" t="n">
         <v>25.5</v>
@@ -2992,7 +2992,7 @@
         <v>-1.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3999999999999915</v>
+        <v>0.1999999999999744</v>
       </c>
       <c r="F5" t="n">
         <v>82.2</v>
@@ -3001,7 +3001,7 @@
         <v>-1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="I5" t="n">
         <v>25.3</v>
@@ -3055,7 +3055,7 @@
         <v>-4.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>191.8</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="AA5" t="n">
         <v>195.9</v>
@@ -3091,7 +3091,7 @@
         <v>-4.2</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1000000000000014</v>
+        <v>3.524958103184872e-15</v>
       </c>
       <c r="AM5" t="n">
         <v>16</v>
@@ -3127,7 +3127,7 @@
         <v>-6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="AY5" t="n">
         <v>26.4</v>
@@ -3136,7 +3136,7 @@
         <v>-7</v>
       </c>
       <c r="BA5" t="n">
-        <v>84.90000000000001</v>
+        <v>84.70000000000002</v>
       </c>
       <c r="BB5" t="n">
         <v>79.40000000000001</v>
@@ -3154,7 +3154,7 @@
         <v>-4.3</v>
       </c>
       <c r="BG5" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="BH5" t="n">
         <v>47.9</v>
@@ -3226,7 +3226,7 @@
         <v>-3.5</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.6000000000000225</v>
       </c>
       <c r="CF5" t="n">
         <v>165.6</v>
@@ -3244,7 +3244,7 @@
         <v>-1.1</v>
       </c>
       <c r="CK5" t="n">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="CL5" t="n">
         <v>58.8</v>
@@ -3262,7 +3262,7 @@
         <v>-7</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.8999999999999204</v>
+        <v>0.1999999999998749</v>
       </c>
       <c r="CR5" t="n">
         <v>255.9</v>
@@ -3271,7 +3271,7 @@
         <v>-11.2</v>
       </c>
       <c r="CT5" t="n">
-        <v>4.800000000000068</v>
+        <v>1.141309269314661e-13</v>
       </c>
       <c r="CU5" t="n">
         <v>805.7</v>
@@ -3289,7 +3289,7 @@
         <v>-2.4</v>
       </c>
       <c r="CZ5" t="n">
-        <v>98.7</v>
+        <v>98.50000000000001</v>
       </c>
       <c r="DA5" t="n">
         <v>93.3</v>
@@ -3316,7 +3316,7 @@
         <v>-4.6</v>
       </c>
       <c r="DI5" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="DJ5" t="n">
         <v>16.6</v>
@@ -3334,7 +3334,7 @@
         <v>-3.6</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.2999999999999972</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="DP5" t="n">
         <v>103.7</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299.1</v>
+        <v>297.9</v>
       </c>
       <c r="C6" t="n">
         <v>296.4</v>
@@ -3539,7 +3539,7 @@
         <v>-1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3999999999999915</v>
+        <v>0.1000000000000086</v>
       </c>
       <c r="F6" t="n">
         <v>83.09999999999999</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>267.9</v>
+        <v>266.7</v>
       </c>
       <c r="O6" t="n">
         <v>254.3</v>
@@ -3575,7 +3575,7 @@
         <v>-5.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.30000000000018</v>
+        <v>6.600000000000358</v>
       </c>
       <c r="R6" t="n">
         <v>6381.5</v>
@@ -3584,7 +3584,7 @@
         <v>-4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>327.7</v>
+        <v>325.3</v>
       </c>
       <c r="U6" t="n">
         <v>319</v>
@@ -3593,7 +3593,7 @@
         <v>-3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.099999999999995</v>
+        <v>0.8999999999999921</v>
       </c>
       <c r="X6" t="n">
         <v>40.3</v>
@@ -3602,7 +3602,7 @@
         <v>-4.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.799999999999983</v>
+        <v>1.499999999999972</v>
       </c>
       <c r="AA6" t="n">
         <v>197</v>
@@ -3620,7 +3620,7 @@
         <v>-5.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.09999999999998005</v>
+        <v>0.09999999999995163</v>
       </c>
       <c r="AG6" t="n">
         <v>97.90000000000001</v>
@@ -3629,7 +3629,7 @@
         <v>-8.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>14.30000000000018</v>
+        <v>3.30000000000018</v>
       </c>
       <c r="AJ6" t="n">
         <v>7146.7</v>
@@ -3638,7 +3638,7 @@
         <v>-4.1</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5999999999999979</v>
+        <v>0.4999999999999929</v>
       </c>
       <c r="AM6" t="n">
         <v>16.1</v>
@@ -3647,7 +3647,7 @@
         <v>-2.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="AP6" t="n">
         <v>29.3</v>
@@ -3656,7 +3656,7 @@
         <v>-3.3</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.8000000000000109</v>
+        <v>0.1000000000000218</v>
       </c>
       <c r="AS6" t="n">
         <v>152.6</v>
@@ -3665,7 +3665,7 @@
         <v>-10.8</v>
       </c>
       <c r="AU6" t="n">
-        <v>163.5</v>
+        <v>162.3</v>
       </c>
       <c r="AV6" t="n">
         <v>154.3</v>
@@ -3683,7 +3683,7 @@
         <v>-6.3</v>
       </c>
       <c r="BA6" t="n">
-        <v>84.90000000000001</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="BB6" t="n">
         <v>79.8</v>
@@ -3692,7 +3692,7 @@
         <v>-6.1</v>
       </c>
       <c r="BD6" t="n">
-        <v>273.7</v>
+        <v>271.7</v>
       </c>
       <c r="BE6" t="n">
         <v>267.4</v>
@@ -3737,7 +3737,7 @@
         <v>-5.2</v>
       </c>
       <c r="BS6" t="n">
-        <v>32.2</v>
+        <v>32.00000000000001</v>
       </c>
       <c r="BT6" t="n">
         <v>32.2</v>
@@ -3764,7 +3764,7 @@
         <v>-1.1</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.6999999999999331</v>
       </c>
       <c r="CC6" t="n">
         <v>515</v>
@@ -3773,7 +3773,7 @@
         <v>-3.1</v>
       </c>
       <c r="CE6" t="n">
-        <v>1</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="CF6" t="n">
         <v>166.3</v>
@@ -3791,7 +3791,7 @@
         <v>-1.4</v>
       </c>
       <c r="CK6" t="n">
-        <v>59.6</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="CL6" t="n">
         <v>58.6</v>
@@ -3809,7 +3809,7 @@
         <v>-7</v>
       </c>
       <c r="CQ6" t="n">
-        <v>288.1</v>
+        <v>287.0000000000002</v>
       </c>
       <c r="CR6" t="n">
         <v>256.5</v>
@@ -3818,7 +3818,7 @@
         <v>-11.5</v>
       </c>
       <c r="CT6" t="n">
-        <v>4.199999999999936</v>
+        <v>1.799999999999845</v>
       </c>
       <c r="CU6" t="n">
         <v>813.9</v>
@@ -3827,7 +3827,7 @@
         <v>-0.3</v>
       </c>
       <c r="CW6" t="n">
-        <v>381.5</v>
+        <v>380.3</v>
       </c>
       <c r="CX6" t="n">
         <v>373.9</v>
@@ -3836,7 +3836,7 @@
         <v>-2.2</v>
       </c>
       <c r="CZ6" t="n">
-        <v>99</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="DA6" t="n">
         <v>93.40000000000001</v>
@@ -3845,7 +3845,7 @@
         <v>-5.7</v>
       </c>
       <c r="DC6" t="n">
-        <v>113.1</v>
+        <v>112.9</v>
       </c>
       <c r="DD6" t="n">
         <v>108.6</v>
@@ -3854,7 +3854,7 @@
         <v>-4.1</v>
       </c>
       <c r="DF6" t="n">
-        <v>456.2</v>
+        <v>456.0000000000001</v>
       </c>
       <c r="DG6" t="n">
         <v>434.3</v>
@@ -3872,7 +3872,7 @@
         <v>8</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.100000000000023</v>
+        <v>0.2000000000000457</v>
       </c>
       <c r="DM6" t="n">
         <v>320.8</v>
@@ -3881,7 +3881,7 @@
         <v>-3.7</v>
       </c>
       <c r="DO6" t="n">
-        <v>106.7</v>
+        <v>106.3</v>
       </c>
       <c r="DP6" t="n">
         <v>103.6</v>
@@ -3908,7 +3908,7 @@
         <v>-6.4</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.7000000000000171</v>
+        <v>0.3000000000000398</v>
       </c>
       <c r="DY6" t="n">
         <v>160.7</v>
@@ -3926,7 +3926,7 @@
         <v>-3.5</v>
       </c>
       <c r="ED6" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="EE6" t="n">
         <v>26</v>
@@ -4131,7 +4131,7 @@
         <v>-4</v>
       </c>
       <c r="T7" t="n">
-        <v>328.9</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="U7" t="n">
         <v>318</v>
@@ -4140,7 +4140,7 @@
         <v>-3.3</v>
       </c>
       <c r="W7" t="n">
-        <v>42.1</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="X7" t="n">
         <v>41.3</v>
@@ -4167,7 +4167,7 @@
         <v>-5.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="AG7" t="n">
         <v>98.7</v>
@@ -4194,7 +4194,7 @@
         <v>-3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>30.2</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="AP7" t="n">
         <v>29.1</v>
@@ -4203,7 +4203,7 @@
         <v>-3.6</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3999999999999773</v>
+        <v>0.2999999999999555</v>
       </c>
       <c r="AS7" t="n">
         <v>155.7</v>
@@ -4212,7 +4212,7 @@
         <v>-10.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>163.9</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="AV7" t="n">
         <v>154.6</v>
@@ -4239,7 +4239,7 @@
         <v>-6</v>
       </c>
       <c r="BD7" t="n">
-        <v>274.4</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="BE7" t="n">
         <v>262.9</v>
@@ -4248,7 +4248,7 @@
         <v>-4.3</v>
       </c>
       <c r="BG7" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="BH7" t="n">
         <v>47.9</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>281.4</v>
+        <v>280.8</v>
       </c>
       <c r="BQ7" t="n">
         <v>267.3</v>
@@ -4293,7 +4293,7 @@
         <v>-0.3</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.2000000000000455</v>
+        <v>1.137007155094238e-13</v>
       </c>
       <c r="BW7" t="n">
         <v>330.2</v>
@@ -4311,7 +4311,7 @@
         <v>-1.5</v>
       </c>
       <c r="CB7" t="n">
-        <v>530.1</v>
+        <v>528.4000000000001</v>
       </c>
       <c r="CC7" t="n">
         <v>515.5</v>
@@ -4320,7 +4320,7 @@
         <v>-3.2</v>
       </c>
       <c r="CE7" t="n">
-        <v>193.6</v>
+        <v>192.6</v>
       </c>
       <c r="CF7" t="n">
         <v>167.4</v>
@@ -4329,7 +4329,7 @@
         <v>-14</v>
       </c>
       <c r="CH7" t="n">
-        <v>79.09999999999999</v>
+        <v>78.69999999999999</v>
       </c>
       <c r="CI7" t="n">
         <v>77.90000000000001</v>
@@ -4338,7 +4338,7 @@
         <v>-1.8</v>
       </c>
       <c r="CK7" t="n">
-        <v>58.9</v>
+        <v>58.8</v>
       </c>
       <c r="CL7" t="n">
         <v>58.5</v>
@@ -4347,7 +4347,7 @@
         <v>-1.8</v>
       </c>
       <c r="CN7" t="n">
-        <v>291.5</v>
+        <v>291.1</v>
       </c>
       <c r="CO7" t="n">
         <v>271.9</v>
@@ -4374,7 +4374,7 @@
         <v>0.6</v>
       </c>
       <c r="CW7" t="n">
-        <v>381.9</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="CX7" t="n">
         <v>373.9</v>
@@ -4392,7 +4392,7 @@
         <v>-5.3</v>
       </c>
       <c r="DC7" t="n">
-        <v>113.1</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="DD7" t="n">
         <v>108.7</v>
@@ -4410,7 +4410,7 @@
         <v>-4.9</v>
       </c>
       <c r="DI7" t="n">
-        <v>16.3</v>
+        <v>15.7</v>
       </c>
       <c r="DJ7" t="n">
         <v>17.8</v>
@@ -4428,7 +4428,7 @@
         <v>-4</v>
       </c>
       <c r="DO7" t="n">
-        <v>106.7</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="DP7" t="n">
         <v>104</v>
@@ -4437,7 +4437,7 @@
         <v>-2.8</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.600000000000023</v>
+        <v>0.600000000000023</v>
       </c>
       <c r="DS7" t="n">
         <v>415.3</v>
@@ -4446,7 +4446,7 @@
         <v>-3.6</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.497202527569243e-15</v>
       </c>
       <c r="DV7" t="n">
         <v>26.6</v>
@@ -4455,7 +4455,7 @@
         <v>-6</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="DY7" t="n">
         <v>161.5</v>
@@ -4464,7 +4464,7 @@
         <v>-3.4</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.5</v>
+        <v>0.2000000000000171</v>
       </c>
       <c r="EB7" t="n">
         <v>208.4</v>
@@ -4473,7 +4473,7 @@
         <v>-3.8</v>
       </c>
       <c r="ED7" t="n">
-        <v>27.3</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="EE7" t="n">
         <v>25.7</v>
@@ -4633,7 +4633,7 @@
         <v>-1.8</v>
       </c>
       <c r="E8" t="n">
-        <v>83.8</v>
+        <v>83.59999999999998</v>
       </c>
       <c r="F8" t="n">
         <v>83.7</v>
@@ -4669,7 +4669,7 @@
         <v>-5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20000000000073</v>
+        <v>3.600000000002185</v>
       </c>
       <c r="R8" t="n">
         <v>6429.9</v>
@@ -4705,7 +4705,7 @@
         <v>2.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>82</v>
+        <v>81.80000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>78</v>
@@ -4723,7 +4723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>17.89999999999963</v>
+        <v>7.499999999999991</v>
       </c>
       <c r="AJ8" t="n">
         <v>7194.2</v>
@@ -4732,7 +4732,7 @@
         <v>-3.7</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="AM8" t="n">
         <v>16.9</v>
@@ -4741,7 +4741,7 @@
         <v>-2.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="AP8" t="n">
         <v>28.3</v>
@@ -4750,7 +4750,7 @@
         <v>-6.3</v>
       </c>
       <c r="AR8" t="n">
-        <v>173.8</v>
+        <v>173</v>
       </c>
       <c r="AS8" t="n">
         <v>156.2</v>
@@ -4759,7 +4759,7 @@
         <v>-10.3</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.6999999999999886</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="AV8" t="n">
         <v>155.2</v>
@@ -4768,7 +4768,7 @@
         <v>-5.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="AY8" t="n">
         <v>26.7</v>
@@ -4840,7 +4840,7 @@
         <v>-0.3</v>
       </c>
       <c r="BV8" t="n">
-        <v>1.099999999999966</v>
+        <v>0.7999999999998408</v>
       </c>
       <c r="BW8" t="n">
         <v>330.7</v>
@@ -4849,7 +4849,7 @@
         <v>-1.1</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.7000000000000457</v>
+        <v>0.3000000000000684</v>
       </c>
       <c r="BZ8" t="n">
         <v>250.1</v>
@@ -4894,7 +4894,7 @@
         <v>-0.8</v>
       </c>
       <c r="CN8" t="n">
-        <v>291.4</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="CO8" t="n">
         <v>271.4</v>
@@ -4903,7 +4903,7 @@
         <v>-7</v>
       </c>
       <c r="CQ8" t="n">
-        <v>289.3</v>
+        <v>287.9</v>
       </c>
       <c r="CR8" t="n">
         <v>256.5</v>
@@ -4912,7 +4912,7 @@
         <v>-11.7</v>
       </c>
       <c r="CT8" t="n">
-        <v>10.29999999999995</v>
+        <v>5.299999999999949</v>
       </c>
       <c r="CU8" t="n">
         <v>843.4</v>
@@ -4921,7 +4921,7 @@
         <v>1.6</v>
       </c>
       <c r="CW8" t="n">
-        <v>381.9</v>
+        <v>381.5</v>
       </c>
       <c r="CX8" t="n">
         <v>374</v>
@@ -4966,7 +4966,7 @@
         <v>6.6</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.4999999999999432</v>
+        <v>0.2999999999998978</v>
       </c>
       <c r="DM8" t="n">
         <v>323.3</v>
@@ -4993,7 +4993,7 @@
         <v>-3.7</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.0999999999999979</v>
       </c>
       <c r="DV8" t="n">
         <v>26.7</v>
@@ -5002,7 +5002,7 @@
         <v>-6.3</v>
       </c>
       <c r="DX8" t="n">
-        <v>166.8</v>
+        <v>165.6</v>
       </c>
       <c r="DY8" t="n">
         <v>163</v>
@@ -5020,7 +5020,7 @@
         <v>-3.9</v>
       </c>
       <c r="ED8" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="EE8" t="n">
         <v>25.8</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1000000000000796</v>
+        <v>1.137007155094238e-13</v>
       </c>
       <c r="C9" t="n">
         <v>297.7</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>269.3</v>
+        <v>268.1</v>
       </c>
       <c r="O9" t="n">
         <v>255.8</v>
@@ -5234,7 +5234,7 @@
         <v>-3.1</v>
       </c>
       <c r="W9" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="X9" t="n">
         <v>41.3</v>
@@ -5243,7 +5243,7 @@
         <v>-4.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>193.9</v>
+        <v>193.3</v>
       </c>
       <c r="AA9" t="n">
         <v>199.4</v>
@@ -5297,7 +5297,7 @@
         <v>-6</v>
       </c>
       <c r="AR9" t="n">
-        <v>173.9</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="AS9" t="n">
         <v>157.6</v>
@@ -5306,7 +5306,7 @@
         <v>-9.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>163.8</v>
+        <v>162.4</v>
       </c>
       <c r="AV9" t="n">
         <v>156.4</v>
@@ -5324,7 +5324,7 @@
         <v>-6.3</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.2000000000000171</v>
       </c>
       <c r="BB9" t="n">
         <v>80.59999999999999</v>
@@ -5342,7 +5342,7 @@
         <v>-3.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.1999999999999958</v>
+        <v>0.0999999999999944</v>
       </c>
       <c r="BH9" t="n">
         <v>48.4</v>
@@ -5351,7 +5351,7 @@
         <v>0.8</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.8000000000000684</v>
+        <v>0.2000000000001594</v>
       </c>
       <c r="BK9" t="n">
         <v>404.1</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>281.3</v>
+        <v>279.3</v>
       </c>
       <c r="BQ9" t="n">
         <v>268.6</v>
@@ -5378,7 +5378,7 @@
         <v>-5</v>
       </c>
       <c r="BS9" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="BT9" t="n">
         <v>32.2</v>
@@ -5405,7 +5405,7 @@
         <v>-1.7</v>
       </c>
       <c r="CB9" t="n">
-        <v>531</v>
+        <v>526.5999999999999</v>
       </c>
       <c r="CC9" t="n">
         <v>521.7</v>
@@ -5423,7 +5423,7 @@
         <v>-13.9</v>
       </c>
       <c r="CH9" t="n">
-        <v>79.10000000000001</v>
+        <v>77.50000000000001</v>
       </c>
       <c r="CI9" t="n">
         <v>78.3</v>
@@ -5450,7 +5450,7 @@
         <v>-6.8</v>
       </c>
       <c r="CQ9" t="n">
-        <v>289.9</v>
+        <v>0.5999999999999659</v>
       </c>
       <c r="CR9" t="n">
         <v>256.4</v>
@@ -5486,7 +5486,7 @@
         <v>-5</v>
       </c>
       <c r="DC9" t="n">
-        <v>113.1</v>
+        <v>112.1</v>
       </c>
       <c r="DD9" t="n">
         <v>109.1</v>
@@ -5495,7 +5495,7 @@
         <v>-4</v>
       </c>
       <c r="DF9" t="n">
-        <v>454.9999999999999</v>
+        <v>453.5999999999997</v>
       </c>
       <c r="DG9" t="n">
         <v>434.7</v>
@@ -5504,7 +5504,7 @@
         <v>-4.7</v>
       </c>
       <c r="DI9" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="DJ9" t="n">
         <v>17.6</v>
@@ -5540,7 +5540,7 @@
         <v>-3.5</v>
       </c>
       <c r="DU9" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="DV9" t="n">
         <v>27</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8999999999999204</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="C10" t="n">
         <v>298.4</v>
@@ -5727,7 +5727,7 @@
         <v>-1.1</v>
       </c>
       <c r="E10" t="n">
-        <v>84.19999999999999</v>
+        <v>83.99999999999997</v>
       </c>
       <c r="F10" t="n">
         <v>83.90000000000001</v>
@@ -5736,7 +5736,7 @@
         <v>-0.6</v>
       </c>
       <c r="H10" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="I10" t="n">
         <v>25.7</v>
@@ -5772,7 +5772,7 @@
         <v>-3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.600000000000079</v>
+        <v>2.400000000000147</v>
       </c>
       <c r="U10" t="n">
         <v>320.4</v>
@@ -5808,7 +5808,7 @@
         <v>-4.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3999999999999915</v>
+        <v>1.429412144204889e-14</v>
       </c>
       <c r="AG10" t="n">
         <v>100.6</v>
@@ -5826,7 +5826,7 @@
         <v>-3.4</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="AM10" t="n">
         <v>16.8</v>
@@ -5844,7 +5844,7 @@
         <v>-6.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>173.6</v>
+        <v>173.5</v>
       </c>
       <c r="AS10" t="n">
         <v>157.5</v>
@@ -5871,7 +5871,7 @@
         <v>-6.6</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="BB10" t="n">
         <v>81.2</v>
@@ -5880,7 +5880,7 @@
         <v>-5.6</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.4000000000000341</v>
+        <v>1.705025010068084e-13</v>
       </c>
       <c r="BE10" t="n">
         <v>265.8</v>
@@ -5889,7 +5889,7 @@
         <v>-3.3</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2000000000000028</v>
+        <v>6.994405055138486e-15</v>
       </c>
       <c r="BH10" t="n">
         <v>48.5</v>
@@ -5898,7 +5898,7 @@
         <v>0.4</v>
       </c>
       <c r="BJ10" t="n">
-        <v>422.9</v>
+        <v>421.5999999999998</v>
       </c>
       <c r="BK10" t="n">
         <v>405.8</v>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>281.6</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="BQ10" t="n">
         <v>268.3</v>
@@ -5934,7 +5934,7 @@
         <v>-0.6</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.3999999999999772</v>
+        <v>0.09999999999996578</v>
       </c>
       <c r="BW10" t="n">
         <v>333</v>
@@ -5943,7 +5943,7 @@
         <v>-1</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.1000000000000228</v>
       </c>
       <c r="BZ10" t="n">
         <v>252.2</v>
@@ -5970,7 +5970,7 @@
         <v>-14</v>
       </c>
       <c r="CH10" t="n">
-        <v>79.09999999999999</v>
+        <v>0.7999999999999829</v>
       </c>
       <c r="CI10" t="n">
         <v>78.5</v>
@@ -5997,7 +5997,7 @@
         <v>-6.5</v>
       </c>
       <c r="CQ10" t="n">
-        <v>289.8</v>
+        <v>289.2</v>
       </c>
       <c r="CR10" t="n">
         <v>256.2</v>
@@ -6024,7 +6024,7 @@
         <v>-1.7</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.1000000000000228</v>
       </c>
       <c r="DA10" t="n">
         <v>94.59999999999999</v>
@@ -6033,7 +6033,7 @@
         <v>-5</v>
       </c>
       <c r="DC10" t="n">
-        <v>113.5</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="DD10" t="n">
         <v>109.1</v>
@@ -6051,7 +6051,7 @@
         <v>-4.9</v>
       </c>
       <c r="DI10" t="n">
-        <v>16.8</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="DJ10" t="n">
         <v>17.7</v>
@@ -6060,7 +6060,7 @@
         <v>5.4</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.6999999999999886</v>
+        <v>0.09999999999996578</v>
       </c>
       <c r="DM10" t="n">
         <v>325.9</v>
@@ -6096,7 +6096,7 @@
         <v>-5.6</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.7000000000000171</v>
+        <v>0.3000000000000398</v>
       </c>
       <c r="DY10" t="n">
         <v>163.8</v>
@@ -6105,7 +6105,7 @@
         <v>-2.3</v>
       </c>
       <c r="EA10" t="n">
-        <v>216.8</v>
+        <v>216.6</v>
       </c>
       <c r="EB10" t="n">
         <v>208.5</v>
@@ -6114,7 +6114,7 @@
         <v>-4.2</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.3000000000000042</v>
+        <v>0.1000000000000084</v>
       </c>
       <c r="EE10" t="n">
         <v>25.9</v>
@@ -6283,7 +6283,7 @@
         <v>0.1</v>
       </c>
       <c r="H11" t="n">
-        <v>27.2</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="I11" t="n">
         <v>25.8</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.900000000000034</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="O11" t="n">
         <v>256.7</v>
@@ -6310,7 +6310,7 @@
         <v>-5.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.19999999999982</v>
+        <v>19.8000000000002</v>
       </c>
       <c r="R11" t="n">
         <v>6515.3</v>
@@ -6337,7 +6337,7 @@
         <v>-4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.999999999999971</v>
+        <v>1.799999999999925</v>
       </c>
       <c r="AA11" t="n">
         <v>200.4</v>
@@ -6346,7 +6346,7 @@
         <v>3.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.1000000000000084</v>
       </c>
       <c r="AD11" t="n">
         <v>79</v>
@@ -6364,7 +6364,7 @@
         <v>-6.1</v>
       </c>
       <c r="AI11" t="n">
-        <v>29.39999999999964</v>
+        <v>19.19999999999892</v>
       </c>
       <c r="AJ11" t="n">
         <v>7281.6</v>
@@ -6409,7 +6409,7 @@
         <v>-4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="AY11" t="n">
         <v>26.8</v>
@@ -6418,7 +6418,7 @@
         <v>-6.6</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.200000000000003</v>
+        <v>0.6000000000000087</v>
       </c>
       <c r="BB11" t="n">
         <v>82.3</v>
@@ -6427,7 +6427,7 @@
         <v>-4.9</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.5999999999999659</v>
+        <v>0.1999999999999318</v>
       </c>
       <c r="BE11" t="n">
         <v>266.7</v>
@@ -6436,7 +6436,7 @@
         <v>-3.3</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.09999999999999443</v>
+        <v>0.09999999999998743</v>
       </c>
       <c r="BH11" t="n">
         <v>48.8</v>
@@ -6454,7 +6454,7 @@
         <v>-4.1</v>
       </c>
       <c r="BM11" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="BN11" t="n">
         <v>15.7</v>
@@ -6463,7 +6463,7 @@
         <v>-1.9</v>
       </c>
       <c r="BP11" t="n">
-        <v>281.6</v>
+        <v>281.3</v>
       </c>
       <c r="BQ11" t="n">
         <v>267.2</v>
@@ -6481,7 +6481,7 @@
         <v>-0.9</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.300000000000011</v>
+        <v>0.8000000000000679</v>
       </c>
       <c r="BW11" t="n">
         <v>334</v>
@@ -6490,7 +6490,7 @@
         <v>-0.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>1.099999999999994</v>
+        <v>0.5999999999999657</v>
       </c>
       <c r="BZ11" t="n">
         <v>252.9</v>
@@ -6499,7 +6499,7 @@
         <v>-1.1</v>
       </c>
       <c r="CB11" t="n">
-        <v>532.8000000000001</v>
+        <v>532.0000000000001</v>
       </c>
       <c r="CC11" t="n">
         <v>526.4</v>
@@ -6508,7 +6508,7 @@
         <v>-1.3</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.499999999999972</v>
+        <v>1.299999999999926</v>
       </c>
       <c r="CF11" t="n">
         <v>172.2</v>
@@ -6553,7 +6553,7 @@
         <v>-11.4</v>
       </c>
       <c r="CT11" t="n">
-        <v>843.2</v>
+        <v>842.4000000000001</v>
       </c>
       <c r="CU11" t="n">
         <v>861.4</v>
@@ -6562,7 +6562,7 @@
         <v>2.1</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.600000000000023</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CX11" t="n">
         <v>376.9</v>
@@ -6571,7 +6571,7 @@
         <v>-1.5</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.5</v>
+        <v>0.0999999999999658</v>
       </c>
       <c r="DA11" t="n">
         <v>94.90000000000001</v>
@@ -6580,7 +6580,7 @@
         <v>-5.2</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.299999999999997</v>
+        <v>0.8999999999999913</v>
       </c>
       <c r="DD11" t="n">
         <v>109.9</v>
@@ -6589,7 +6589,7 @@
         <v>-3.2</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="DG11" t="n">
         <v>432.3</v>
@@ -6598,7 +6598,7 @@
         <v>-5.3</v>
       </c>
       <c r="DI11" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="DJ11" t="n">
         <v>17.7</v>
@@ -6607,7 +6607,7 @@
         <v>5.4</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.699999999999989</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="DM11" t="n">
         <v>328</v>
@@ -6625,7 +6625,7 @@
         <v>-2</v>
       </c>
       <c r="DR11" t="n">
-        <v>2.600000000000023</v>
+        <v>2.400000000000091</v>
       </c>
       <c r="DS11" t="n">
         <v>424.7</v>
@@ -6634,7 +6634,7 @@
         <v>-2.8</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="DV11" t="n">
         <v>27.3</v>
@@ -6643,7 +6643,7 @@
         <v>-5.2</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.099999999999994</v>
+        <v>0.399999999999977</v>
       </c>
       <c r="DY11" t="n">
         <v>164.4</v>
@@ -6661,7 +6661,7 @@
         <v>-3.5</v>
       </c>
       <c r="ED11" t="n">
-        <v>27.1</v>
+        <v>26.59999999999999</v>
       </c>
       <c r="EE11" t="n">
         <v>25.8</v>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>293</v>
+        <v>292.8</v>
       </c>
       <c r="C12" t="n">
         <v>302.3</v>
@@ -6821,7 +6821,7 @@
         <v>-0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>81.90000000000001</v>
+        <v>81.30000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>84.40000000000001</v>
@@ -6830,7 +6830,7 @@
         <v>-0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="I12" t="n">
         <v>25.9</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.6</v>
+        <v>232.8</v>
       </c>
       <c r="O12" t="n">
         <v>259</v>
@@ -6857,7 +6857,7 @@
         <v>-5.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>6094.4</v>
+        <v>6043.7</v>
       </c>
       <c r="R12" t="n">
         <v>6550.2</v>
@@ -6866,7 +6866,7 @@
         <v>-3.1</v>
       </c>
       <c r="T12" t="n">
-        <v>308.5000000000001</v>
+        <v>308.3000000000003</v>
       </c>
       <c r="U12" t="n">
         <v>325.8</v>
@@ -6875,7 +6875,7 @@
         <v>-2.9</v>
       </c>
       <c r="W12" t="n">
-        <v>39.3</v>
+        <v>38.5</v>
       </c>
       <c r="X12" t="n">
         <v>40.9</v>
@@ -6884,7 +6884,7 @@
         <v>-4.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>188.8</v>
+        <v>184.9000000000001</v>
       </c>
       <c r="AA12" t="n">
         <v>201.8</v>
@@ -6893,7 +6893,7 @@
         <v>2.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>73.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>79.8</v>
@@ -6902,7 +6902,7 @@
         <v>-4.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>93.5</v>
+        <v>93.49999999999997</v>
       </c>
       <c r="AG12" t="n">
         <v>102</v>
@@ -6911,7 +6911,7 @@
         <v>-6.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>6857.5</v>
+        <v>6803.800000000001</v>
       </c>
       <c r="AJ12" t="n">
         <v>7318</v>
@@ -6920,7 +6920,7 @@
         <v>-3.1</v>
       </c>
       <c r="AL12" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="AM12" t="n">
         <v>17</v>
@@ -6929,7 +6929,7 @@
         <v>-2.9</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>26.6</v>
       </c>
       <c r="AP12" t="n">
         <v>27.7</v>
@@ -6938,7 +6938,7 @@
         <v>-8.6</v>
       </c>
       <c r="AR12" t="n">
-        <v>146.5</v>
+        <v>144.9</v>
       </c>
       <c r="AS12" t="n">
         <v>159.5</v>
@@ -6947,7 +6947,7 @@
         <v>-8.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>147.5</v>
+        <v>146.5</v>
       </c>
       <c r="AV12" t="n">
         <v>159</v>
@@ -6965,7 +6965,7 @@
         <v>-6.3</v>
       </c>
       <c r="BA12" t="n">
-        <v>74.39999999999999</v>
+        <v>72.49999999999999</v>
       </c>
       <c r="BB12" t="n">
         <v>82.8</v>
@@ -6974,7 +6974,7 @@
         <v>-6.1</v>
       </c>
       <c r="BD12" t="n">
-        <v>251.7</v>
+        <v>250.9000000000001</v>
       </c>
       <c r="BE12" t="n">
         <v>267.9</v>
@@ -6983,7 +6983,7 @@
         <v>-3.1</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.9000000000000059</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="BH12" t="n">
         <v>49</v>
@@ -6992,7 +6992,7 @@
         <v>0.4</v>
       </c>
       <c r="BJ12" t="n">
-        <v>390.7</v>
+        <v>389.3</v>
       </c>
       <c r="BK12" t="n">
         <v>409.8</v>
@@ -7019,7 +7019,7 @@
         <v>-4.7</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.6000000000000156</v>
       </c>
       <c r="BT12" t="n">
         <v>32.5</v>
@@ -7028,7 +7028,7 @@
         <v>-0.9</v>
       </c>
       <c r="BV12" t="n">
-        <v>336.1</v>
+        <v>333.9</v>
       </c>
       <c r="BW12" t="n">
         <v>334.1</v>
@@ -7037,7 +7037,7 @@
         <v>-1.4</v>
       </c>
       <c r="BY12" t="n">
-        <v>252.7</v>
+        <v>250.8</v>
       </c>
       <c r="BZ12" t="n">
         <v>252.7</v>
@@ -7055,7 +7055,7 @@
         <v>-0.8</v>
       </c>
       <c r="CE12" t="n">
-        <v>156.5</v>
+        <v>153.6000000000001</v>
       </c>
       <c r="CF12" t="n">
         <v>174.5</v>
@@ -7064,7 +7064,7 @@
         <v>-13.7</v>
       </c>
       <c r="CH12" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="CI12" t="n">
         <v>77.5</v>
@@ -7073,7 +7073,7 @@
         <v>-2.3</v>
       </c>
       <c r="CK12" t="n">
-        <v>57.99999999999999</v>
+        <v>57.19999999999998</v>
       </c>
       <c r="CL12" t="n">
         <v>57.4</v>
@@ -7082,7 +7082,7 @@
         <v>-4.7</v>
       </c>
       <c r="CN12" t="n">
-        <v>261.5</v>
+        <v>259.1</v>
       </c>
       <c r="CO12" t="n">
         <v>273.5</v>
@@ -7091,7 +7091,7 @@
         <v>-6.3</v>
       </c>
       <c r="CQ12" t="n">
-        <v>241.5</v>
+        <v>235.5</v>
       </c>
       <c r="CR12" t="n">
         <v>257.5</v>
@@ -7109,7 +7109,7 @@
         <v>2.3</v>
       </c>
       <c r="CW12" t="n">
-        <v>360.9999999999999</v>
+        <v>358.0999999999999</v>
       </c>
       <c r="CX12" t="n">
         <v>378.2</v>
@@ -7118,7 +7118,7 @@
         <v>-1.7</v>
       </c>
       <c r="CZ12" t="n">
-        <v>89.5</v>
+        <v>88.80000000000001</v>
       </c>
       <c r="DA12" t="n">
         <v>95.59999999999999</v>
@@ -7127,7 +7127,7 @@
         <v>-5</v>
       </c>
       <c r="DC12" t="n">
-        <v>103</v>
+        <v>100.4</v>
       </c>
       <c r="DD12" t="n">
         <v>110.3</v>
@@ -7136,7 +7136,7 @@
         <v>-3.9</v>
       </c>
       <c r="DF12" t="n">
-        <v>427</v>
+        <v>425.8000000000001</v>
       </c>
       <c r="DG12" t="n">
         <v>433.7</v>
@@ -7154,7 +7154,7 @@
         <v>4.8</v>
       </c>
       <c r="DL12" t="n">
-        <v>309.5</v>
+        <v>306.8</v>
       </c>
       <c r="DM12" t="n">
         <v>330.3</v>
@@ -7163,7 +7163,7 @@
         <v>-2.8</v>
       </c>
       <c r="DO12" t="n">
-        <v>101.6</v>
+        <v>101</v>
       </c>
       <c r="DP12" t="n">
         <v>106.2</v>
@@ -7172,7 +7172,7 @@
         <v>-1.9</v>
       </c>
       <c r="DR12" t="n">
-        <v>390.9</v>
+        <v>385.8</v>
       </c>
       <c r="DS12" t="n">
         <v>427.5</v>
@@ -7181,7 +7181,7 @@
         <v>-3</v>
       </c>
       <c r="DU12" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="DV12" t="n">
         <v>27.5</v>
@@ -7190,7 +7190,7 @@
         <v>-6.1</v>
       </c>
       <c r="DX12" t="n">
-        <v>155.9</v>
+        <v>154.4</v>
       </c>
       <c r="DY12" t="n">
         <v>166</v>
@@ -7199,7 +7199,7 @@
         <v>-2.6</v>
       </c>
       <c r="EA12" t="n">
-        <v>200.6</v>
+        <v>199.2</v>
       </c>
       <c r="EB12" t="n">
         <v>210</v>
@@ -7566,7 +7566,7 @@
         <v>-3.2</v>
       </c>
       <c r="BS13" t="n">
-        <v>32.7</v>
+        <v>31.19999999999999</v>
       </c>
       <c r="BT13" t="n">
         <v>34</v>
@@ -7620,7 +7620,7 @@
         <v>-2.6</v>
       </c>
       <c r="CK13" t="n">
-        <v>58.2</v>
+        <v>0.2000000000000099</v>
       </c>
       <c r="CL13" t="n">
         <v>56.4</v>
@@ -7692,7 +7692,7 @@
         <v>-2.8</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.6999999999999997</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="DJ13" t="n">
         <v>18.5</v>
@@ -7969,7 +7969,7 @@
         <v>-0.1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5000000000000071</v>
+        <v>0.1000000000000157</v>
       </c>
       <c r="X14" t="n">
         <v>39.8</v>
@@ -8023,7 +8023,7 @@
         <v>7.3</v>
       </c>
       <c r="AO14" t="n">
-        <v>28.4</v>
+        <v>26.2</v>
       </c>
       <c r="AP14" t="n">
         <v>26.8</v>
@@ -8095,7 +8095,7 @@
         <v>2</v>
       </c>
       <c r="BM14" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="BN14" t="n">
         <v>15.9</v>
@@ -8104,7 +8104,7 @@
         <v>0.6</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.999999999999943</v>
+        <v>0.5999999999999088</v>
       </c>
       <c r="BQ14" t="n">
         <v>256.3</v>
@@ -8122,7 +8122,7 @@
         <v>0.9</v>
       </c>
       <c r="BV14" t="n">
-        <v>336.9</v>
+        <v>333.3000000000001</v>
       </c>
       <c r="BW14" t="n">
         <v>339.4</v>
@@ -8131,7 +8131,7 @@
         <v>-0.1</v>
       </c>
       <c r="BY14" t="n">
-        <v>252.7</v>
+        <v>249.9</v>
       </c>
       <c r="BZ14" t="n">
         <v>254.6</v>
@@ -8167,7 +8167,7 @@
         <v>-2.1</v>
       </c>
       <c r="CK14" t="n">
-        <v>58.1</v>
+        <v>57.89999999999999</v>
       </c>
       <c r="CL14" t="n">
         <v>56.2</v>
@@ -8239,7 +8239,7 @@
         <v>-3.5</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.2000000000000028</v>
+        <v>0.2000000000000023</v>
       </c>
       <c r="DJ14" t="n">
         <v>18.6</v>
@@ -8257,7 +8257,7 @@
         <v>3.6</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.200000000000003</v>
+        <v>0.4000000000000059</v>
       </c>
       <c r="DP14" t="n">
         <v>106</v>
@@ -8516,7 +8516,7 @@
         <v>-0.7</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999998715</v>
       </c>
       <c r="X15" t="n">
         <v>40.5</v>
@@ -8543,7 +8543,7 @@
         <v>0.3</v>
       </c>
       <c r="AF15" t="n">
-        <v>96.3</v>
+        <v>94.09999999999998</v>
       </c>
       <c r="AG15" t="n">
         <v>100.9</v>
@@ -8570,7 +8570,7 @@
         <v>7.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>29.4</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="n">
         <v>27.1</v>
@@ -8624,7 +8624,7 @@
         <v>3.1</v>
       </c>
       <c r="BG15" t="n">
-        <v>50.6</v>
+        <v>50.4</v>
       </c>
       <c r="BH15" t="n">
         <v>50.9</v>
@@ -8651,7 +8651,7 @@
         <v>-0.6</v>
       </c>
       <c r="BP15" t="n">
-        <v>264.7</v>
+        <v>262.1000000000001</v>
       </c>
       <c r="BQ15" t="n">
         <v>257</v>
@@ -8660,7 +8660,7 @@
         <v>-4.5</v>
       </c>
       <c r="BS15" t="n">
-        <v>33.40000000000001</v>
+        <v>33.00000000000002</v>
       </c>
       <c r="BT15" t="n">
         <v>33.9</v>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>338.5</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="BW15" t="n">
         <v>336.7</v>
@@ -8696,7 +8696,7 @@
         <v>6</v>
       </c>
       <c r="CE15" t="n">
-        <v>162.8</v>
+        <v>161</v>
       </c>
       <c r="CF15" t="n">
         <v>153.2</v>
@@ -8786,7 +8786,7 @@
         <v>-4.2</v>
       </c>
       <c r="DI15" t="n">
-        <v>17.9</v>
+        <v>17.5</v>
       </c>
       <c r="DJ15" t="n">
         <v>18.5</v>
@@ -8804,7 +8804,7 @@
         <v>2.9</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.1999999999999884</v>
       </c>
       <c r="DP15" t="n">
         <v>106.9</v>
@@ -8849,7 +8849,7 @@
         <v>-0.6</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.1999999999999958</v>
+        <v>0.0999999999999944</v>
       </c>
       <c r="EE15" t="n">
         <v>26</v>
@@ -9117,7 +9117,7 @@
         <v>5.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>29.4</v>
+        <v>28.4</v>
       </c>
       <c r="AP16" t="n">
         <v>27.3</v>
@@ -9126,7 +9126,7 @@
         <v>-7.1</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.7000000000000171</v>
+        <v>0.5000000000000293</v>
       </c>
       <c r="AS16" t="n">
         <v>156.5</v>
@@ -9135,7 +9135,7 @@
         <v>0.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9000000000000057</v>
+        <v>0.7000000000000171</v>
       </c>
       <c r="AV16" t="n">
         <v>153.8</v>
@@ -9189,7 +9189,7 @@
         <v>1.5</v>
       </c>
       <c r="BM16" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="BN16" t="n">
         <v>15.8</v>
@@ -9216,7 +9216,7 @@
         <v>1.2</v>
       </c>
       <c r="BV16" t="n">
-        <v>338.1</v>
+        <v>336.5</v>
       </c>
       <c r="BW16" t="n">
         <v>335.4</v>
@@ -9225,7 +9225,7 @@
         <v>-0.9</v>
       </c>
       <c r="BY16" t="n">
-        <v>253.4</v>
+        <v>253.2</v>
       </c>
       <c r="BZ16" t="n">
         <v>250.7</v>
@@ -9261,7 +9261,7 @@
         <v>-2.2</v>
       </c>
       <c r="CK16" t="n">
-        <v>57.90000000000001</v>
+        <v>56.30000000000003</v>
       </c>
       <c r="CL16" t="n">
         <v>55.9</v>
@@ -9279,7 +9279,7 @@
         <v>-3.7</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.6999999999999891</v>
+        <v>0.1999999999999891</v>
       </c>
       <c r="CR16" t="n">
         <v>236.7</v>
@@ -9315,7 +9315,7 @@
         <v>-0.6</v>
       </c>
       <c r="DC16" t="n">
-        <v>107.9</v>
+        <v>107.3</v>
       </c>
       <c r="DD16" t="n">
         <v>105.3</v>
@@ -9378,7 +9378,7 @@
         <v>-2.6</v>
       </c>
       <c r="DX16" t="n">
-        <v>162.1</v>
+        <v>161.9</v>
       </c>
       <c r="DY16" t="n">
         <v>161.3</v>
@@ -9387,7 +9387,7 @@
         <v>-1.1</v>
       </c>
       <c r="EA16" t="n">
-        <v>206.4</v>
+        <v>205</v>
       </c>
       <c r="EB16" t="n">
         <v>206</v>
@@ -9396,7 +9396,7 @@
         <v>-0.9</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.1000000000000014</v>
+        <v>6.994405055138486e-15</v>
       </c>
       <c r="EE16" t="n">
         <v>26</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.7</v>
+        <v>302.7</v>
       </c>
       <c r="C17" t="n">
         <v>319.6</v>
@@ -9556,7 +9556,7 @@
         <v>3.8</v>
       </c>
       <c r="E17" t="n">
-        <v>84.3</v>
+        <v>83.49999999999999</v>
       </c>
       <c r="F17" t="n">
         <v>88.5</v>
@@ -9565,7 +9565,7 @@
         <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="I17" t="n">
         <v>26.9</v>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="O17" t="n">
         <v>254.1</v>
@@ -9601,7 +9601,7 @@
         <v>1.1</v>
       </c>
       <c r="T17" t="n">
-        <v>321.6</v>
+        <v>320.2000000000002</v>
       </c>
       <c r="U17" t="n">
         <v>321.5</v>
@@ -9628,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
         <v>79.09999999999999</v>
@@ -9637,7 +9637,7 @@
         <v>0.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AG17" t="n">
         <v>102.1</v>
@@ -9655,7 +9655,7 @@
         <v>0.7</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.1999999999999958</v>
+        <v>0.1999999999999888</v>
       </c>
       <c r="AM17" t="n">
         <v>18.2</v>
@@ -9673,7 +9673,7 @@
         <v>-8.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.599999999999966</v>
+        <v>0.2999999999999257</v>
       </c>
       <c r="AS17" t="n">
         <v>158.3</v>
@@ -9682,7 +9682,7 @@
         <v>1.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>151.8</v>
+        <v>150.1</v>
       </c>
       <c r="AV17" t="n">
         <v>154.5</v>
@@ -9691,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.0999999999999979</v>
       </c>
       <c r="AY17" t="n">
         <v>25.9</v>
@@ -9709,7 +9709,7 @@
         <v>-0.6</v>
       </c>
       <c r="BD17" t="n">
-        <v>1</v>
+        <v>0.1999999999999318</v>
       </c>
       <c r="BE17" t="n">
         <v>275.6</v>
@@ -9718,7 +9718,7 @@
         <v>2.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>50.7</v>
+        <v>50.50000000000001</v>
       </c>
       <c r="BH17" t="n">
         <v>50.9</v>
@@ -9727,7 +9727,7 @@
         <v>0.2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.699999999999988</v>
+        <v>1.499999999999942</v>
       </c>
       <c r="BK17" t="n">
         <v>412.4</v>
@@ -9745,7 +9745,7 @@
         <v>-2.5</v>
       </c>
       <c r="BP17" t="n">
-        <v>267.6</v>
+        <v>266.8</v>
       </c>
       <c r="BQ17" t="n">
         <v>257.8</v>
@@ -9754,7 +9754,7 @@
         <v>-4</v>
       </c>
       <c r="BS17" t="n">
-        <v>33.6</v>
+        <v>33.20000000000002</v>
       </c>
       <c r="BT17" t="n">
         <v>34</v>
@@ -9799,7 +9799,7 @@
         <v>-5.2</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.300000000000012</v>
+        <v>1.100000000000024</v>
       </c>
       <c r="CI17" t="n">
         <v>75.8</v>
@@ -9808,7 +9808,7 @@
         <v>-2.2</v>
       </c>
       <c r="CK17" t="n">
-        <v>58.6</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="CL17" t="n">
         <v>56.5</v>
@@ -9826,7 +9826,7 @@
         <v>-3.5</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.4000000000000339</v>
+        <v>0.2000000000000448</v>
       </c>
       <c r="CR17" t="n">
         <v>237.5</v>
@@ -9835,7 +9835,7 @@
         <v>-6.7</v>
       </c>
       <c r="CT17" t="n">
-        <v>5.299999999999955</v>
+        <v>2.899999999999866</v>
       </c>
       <c r="CU17" t="n">
         <v>858.4</v>
@@ -9853,7 +9853,7 @@
         <v>3.1</v>
       </c>
       <c r="CZ17" t="n">
-        <v>94</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="DA17" t="n">
         <v>93.90000000000001</v>
@@ -9871,7 +9871,7 @@
         <v>-2.3</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.6999999999999891</v>
+        <v>0.1999999999999891</v>
       </c>
       <c r="DG17" t="n">
         <v>420.4</v>
@@ -9907,7 +9907,7 @@
         <v>1.3</v>
       </c>
       <c r="DR17" t="n">
-        <v>3.300000000000011</v>
+        <v>2.499999999999943</v>
       </c>
       <c r="DS17" t="n">
         <v>431.4</v>
@@ -9916,7 +9916,7 @@
         <v>0.7</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.3000000000000042</v>
+        <v>0.1000000000000084</v>
       </c>
       <c r="DV17" t="n">
         <v>26.6</v>
@@ -9934,7 +9934,7 @@
         <v>-0.7</v>
       </c>
       <c r="EA17" t="n">
-        <v>206.9</v>
+        <v>0.5</v>
       </c>
       <c r="EB17" t="n">
         <v>203.7</v>
@@ -9943,7 +9943,7 @@
         <v>-1.6</v>
       </c>
       <c r="ED17" t="n">
-        <v>1.099999999999998</v>
+        <v>0.8999999999999952</v>
       </c>
       <c r="EE17" t="n">
         <v>26.6</v>
@@ -10112,7 +10112,7 @@
         <v>3.9</v>
       </c>
       <c r="H18" t="n">
-        <v>24.8</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="I18" t="n">
         <v>25.1</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4000000000000337</v>
+        <v>5.639932965095795e-14</v>
       </c>
       <c r="O18" t="n">
         <v>254</v>
@@ -10139,7 +10139,7 @@
         <v>-1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.40000000000055</v>
+        <v>28.60000000000127</v>
       </c>
       <c r="R18" t="n">
         <v>6566.9</v>
@@ -10193,7 +10193,7 @@
         <v>3.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>30.39999999999964</v>
+        <v>27.19999999999892</v>
       </c>
       <c r="AJ18" t="n">
         <v>7323.5</v>
@@ -10202,7 +10202,7 @@
         <v>0.3</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.2000000000000028</v>
+        <v>6.994405055138486e-15</v>
       </c>
       <c r="AM18" t="n">
         <v>18.4</v>
@@ -10238,7 +10238,7 @@
         <v>0.4</v>
       </c>
       <c r="AX18" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="AY18" t="n">
         <v>25.9</v>
@@ -10256,7 +10256,7 @@
         <v>-0.8</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.600000000000023</v>
+        <v>5.706546346573305e-14</v>
       </c>
       <c r="BE18" t="n">
         <v>275.3</v>
@@ -10283,7 +10283,7 @@
         <v>1.8</v>
       </c>
       <c r="BM18" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="BN18" t="n">
         <v>16.3</v>
@@ -10337,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="CE18" t="n">
-        <v>164.4</v>
+        <v>163.4</v>
       </c>
       <c r="CF18" t="n">
         <v>156.8</v>
@@ -10355,7 +10355,7 @@
         <v>-3.2</v>
       </c>
       <c r="CK18" t="n">
-        <v>58.6</v>
+        <v>57.90000000000001</v>
       </c>
       <c r="CL18" t="n">
         <v>56.4</v>
@@ -10364,7 +10364,7 @@
         <v>-3.8</v>
       </c>
       <c r="CN18" t="n">
-        <v>274.6</v>
+        <v>274.1999999999999</v>
       </c>
       <c r="CO18" t="n">
         <v>265.5</v>
@@ -10373,7 +10373,7 @@
         <v>-3.7</v>
       </c>
       <c r="CQ18" t="n">
-        <v>254.5</v>
+        <v>253.7</v>
       </c>
       <c r="CR18" t="n">
         <v>238.4</v>
@@ -10382,7 +10382,7 @@
         <v>-6.9</v>
       </c>
       <c r="CT18" t="n">
-        <v>11.79999999999995</v>
+        <v>2.400000000000083</v>
       </c>
       <c r="CU18" t="n">
         <v>864.2</v>
@@ -10409,7 +10409,7 @@
         <v>-1.2</v>
       </c>
       <c r="DC18" t="n">
-        <v>108.1</v>
+        <v>107.5</v>
       </c>
       <c r="DD18" t="n">
         <v>105.9</v>
@@ -10418,7 +10418,7 @@
         <v>-2.4</v>
       </c>
       <c r="DF18" t="n">
-        <v>437.3</v>
+        <v>436.4</v>
       </c>
       <c r="DG18" t="n">
         <v>420.8</v>
@@ -10427,7 +10427,7 @@
         <v>-4.1</v>
       </c>
       <c r="DI18" t="n">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
       <c r="DJ18" t="n">
         <v>19.2</v>
@@ -10445,7 +10445,7 @@
         <v>2.4</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.2000000000000028</v>
+        <v>0.09999999999999429</v>
       </c>
       <c r="DP18" t="n">
         <v>107.7</v>
@@ -10481,7 +10481,7 @@
         <v>-1.2</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.6999999999999886</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="EB18" t="n">
         <v>202.9</v>
@@ -10659,7 +10659,7 @@
         <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="I19" t="n">
         <v>25.1</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>257.8</v>
+        <v>256.9999999999999</v>
       </c>
       <c r="O19" t="n">
         <v>253.5</v>
@@ -10713,7 +10713,7 @@
         <v>0.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>200.6</v>
+        <v>200.4</v>
       </c>
       <c r="AA19" t="n">
         <v>202.6</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>17.5</v>
+        <v>17.29999999999999</v>
       </c>
       <c r="AM19" t="n">
         <v>18.8</v>
@@ -10776,7 +10776,7 @@
         <v>0.3</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.5000000000000284</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="AV19" t="n">
         <v>153.6</v>
@@ -10785,7 +10785,7 @@
         <v>0.3</v>
       </c>
       <c r="AX19" t="n">
-        <v>26.9</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="AY19" t="n">
         <v>25.7</v>
@@ -10794,7 +10794,7 @@
         <v>-4.8</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999993729</v>
       </c>
       <c r="BB19" t="n">
         <v>82.5</v>
@@ -10803,7 +10803,7 @@
         <v>-1.1</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.2999999999999543</v>
       </c>
       <c r="BE19" t="n">
         <v>274.9</v>
@@ -10812,7 +10812,7 @@
         <v>1.3</v>
       </c>
       <c r="BG19" t="n">
-        <v>50.49999999999999</v>
+        <v>49.69999999999998</v>
       </c>
       <c r="BH19" t="n">
         <v>50.7</v>
@@ -10821,7 +10821,7 @@
         <v>-1</v>
       </c>
       <c r="BJ19" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="BK19" t="n">
         <v>412.7</v>
@@ -10839,7 +10839,7 @@
         <v>-1.2</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.600000000000023</v>
+        <v>0.100000000000023</v>
       </c>
       <c r="BQ19" t="n">
         <v>257.7</v>
@@ -10893,7 +10893,7 @@
         <v>-5.3</v>
       </c>
       <c r="CH19" t="n">
-        <v>78.2</v>
+        <v>77.00000000000001</v>
       </c>
       <c r="CI19" t="n">
         <v>76.7</v>
@@ -10929,7 +10929,7 @@
         <v>-6.9</v>
       </c>
       <c r="CT19" t="n">
-        <v>11.60000000000002</v>
+        <v>5.100000000000025</v>
       </c>
       <c r="CU19" t="n">
         <v>866.7</v>
@@ -10938,7 +10938,7 @@
         <v>0.8</v>
       </c>
       <c r="CW19" t="n">
-        <v>1.199999999999989</v>
+        <v>0.1999999999999891</v>
       </c>
       <c r="CX19" t="n">
         <v>396.4</v>
@@ -10947,7 +10947,7 @@
         <v>3.1</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="DA19" t="n">
         <v>93.40000000000001</v>
@@ -10974,7 +10974,7 @@
         <v>-4.3</v>
       </c>
       <c r="DI19" t="n">
-        <v>19.4</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="DJ19" t="n">
         <v>19</v>
@@ -10983,7 +10983,7 @@
         <v>-2.1</v>
       </c>
       <c r="DL19" t="n">
-        <v>2.099999999999966</v>
+        <v>1.099999999999852</v>
       </c>
       <c r="DM19" t="n">
         <v>343.8</v>
@@ -10992,7 +10992,7 @@
         <v>2.1</v>
       </c>
       <c r="DO19" t="n">
-        <v>3.199999999999988</v>
+        <v>2.899999999999991</v>
       </c>
       <c r="DP19" t="n">
         <v>107.7</v>
@@ -11010,7 +11010,7 @@
         <v>0.1</v>
       </c>
       <c r="DU19" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.3000000000000078</v>
       </c>
       <c r="DV19" t="n">
         <v>26.7</v>
@@ -11019,7 +11019,7 @@
         <v>-4.3</v>
       </c>
       <c r="DX19" t="n">
-        <v>1</v>
+        <v>0.4000000000000346</v>
       </c>
       <c r="DY19" t="n">
         <v>162.6</v>
@@ -11028,7 +11028,7 @@
         <v>-1.4</v>
       </c>
       <c r="EA19" t="n">
-        <v>206.3</v>
+        <v>204.9</v>
       </c>
       <c r="EB19" t="n">
         <v>203</v>
@@ -11197,7 +11197,7 @@
         <v>3.1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2999999999999972</v>
+        <v>0.1000000000000084</v>
       </c>
       <c r="F20" t="n">
         <v>89.2</v>
@@ -11206,7 +11206,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="I20" t="n">
         <v>25.1</v>
@@ -11233,7 +11233,7 @@
         <v>-2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>23</v>
+        <v>22.8000000000011</v>
       </c>
       <c r="R20" t="n">
         <v>6588.5</v>
@@ -11242,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7999999999999545</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="U20" t="n">
         <v>322.3</v>
@@ -11287,7 +11287,7 @@
         <v>2</v>
       </c>
       <c r="AI20" t="n">
-        <v>23.69999999999982</v>
+        <v>19.29999999999838</v>
       </c>
       <c r="AJ20" t="n">
         <v>7346.9</v>
@@ -11305,7 +11305,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="AP20" t="n">
         <v>26.8</v>
@@ -11323,7 +11323,7 @@
         <v>-0.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999993739</v>
       </c>
       <c r="AV20" t="n">
         <v>153.5</v>
@@ -11341,7 +11341,7 @@
         <v>-4.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.1000000000000513</v>
       </c>
       <c r="BB20" t="n">
         <v>82.8</v>
@@ -11350,7 +11350,7 @@
         <v>-1.4</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.3000000000000678</v>
+        <v>1.135203042679223e-13</v>
       </c>
       <c r="BE20" t="n">
         <v>276</v>
@@ -11377,7 +11377,7 @@
         <v>0.9</v>
       </c>
       <c r="BM20" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="BN20" t="n">
         <v>16.5</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="BP20" t="n">
-        <v>268.5</v>
+        <v>267.8</v>
       </c>
       <c r="BQ20" t="n">
         <v>259.2</v>
@@ -11395,7 +11395,7 @@
         <v>-3.9</v>
       </c>
       <c r="BS20" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="BT20" t="n">
         <v>34.2</v>
@@ -11404,7 +11404,7 @@
         <v>0.6</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.700000000000045</v>
+        <v>0.3000000000001815</v>
       </c>
       <c r="BW20" t="n">
         <v>336.6</v>
@@ -11422,7 +11422,7 @@
         <v>-0.9</v>
       </c>
       <c r="CB20" t="n">
-        <v>1.700000000000045</v>
+        <v>0.2000000000001589</v>
       </c>
       <c r="CC20" t="n">
         <v>552.2</v>
@@ -11440,7 +11440,7 @@
         <v>-5.8</v>
       </c>
       <c r="CH20" t="n">
-        <v>78.59999999999999</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="CI20" t="n">
         <v>76.2</v>
@@ -11467,7 +11467,7 @@
         <v>-3.9</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.1000000000000228</v>
       </c>
       <c r="CR20" t="n">
         <v>239.1</v>
@@ -11485,7 +11485,7 @@
         <v>0.3</v>
       </c>
       <c r="CW20" t="n">
-        <v>1</v>
+        <v>0.3000000000000109</v>
       </c>
       <c r="CX20" t="n">
         <v>396.5</v>
@@ -11494,7 +11494,7 @@
         <v>2.7</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.2000000000000028</v>
+        <v>2.839395385478838e-14</v>
       </c>
       <c r="DA20" t="n">
         <v>93.7</v>
@@ -11503,7 +11503,7 @@
         <v>-1.2</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.2000000000000171</v>
       </c>
       <c r="DD20" t="n">
         <v>106.1</v>
@@ -11512,7 +11512,7 @@
         <v>-2.2</v>
       </c>
       <c r="DF20" t="n">
-        <v>437.9</v>
+        <v>434.9</v>
       </c>
       <c r="DG20" t="n">
         <v>421.7</v>
@@ -11566,7 +11566,7 @@
         <v>-5.3</v>
       </c>
       <c r="DX20" t="n">
-        <v>164.7</v>
+        <v>163</v>
       </c>
       <c r="DY20" t="n">
         <v>163.4</v>
@@ -11584,7 +11584,7 @@
         <v>-1.9</v>
       </c>
       <c r="ED20" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="EE20" t="n">
         <v>27.2</v>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307</v>
+        <v>306.8</v>
       </c>
       <c r="C21" t="n">
         <v>316</v>
@@ -11753,7 +11753,7 @@
         <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>25.2</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="I21" t="n">
         <v>25.1</v>
@@ -11798,7 +11798,7 @@
         <v>-0.6</v>
       </c>
       <c r="W21" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="X21" t="n">
         <v>41.8</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.0999999999999801</v>
       </c>
       <c r="AD21" t="n">
         <v>80.5</v>
@@ -11852,7 +11852,7 @@
         <v>4.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>28.1</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="AP21" t="n">
         <v>26.6</v>
@@ -11861,7 +11861,7 @@
         <v>-5.3</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.100000000000022</v>
+        <v>0.7000000000000448</v>
       </c>
       <c r="AS21" t="n">
         <v>160.3</v>
@@ -11870,7 +11870,7 @@
         <v>-0.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.3000000000000398</v>
+        <v>5.689893001203927e-14</v>
       </c>
       <c r="AV21" t="n">
         <v>153.9</v>
@@ -11888,7 +11888,7 @@
         <v>-4.1</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.09999999999999426</v>
       </c>
       <c r="BB21" t="n">
         <v>83.3</v>
@@ -11897,7 +11897,7 @@
         <v>-1.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>1</v>
+        <v>0.3999999999998644</v>
       </c>
       <c r="BE21" t="n">
         <v>275.4</v>
@@ -11933,7 +11933,7 @@
         <v>0.6</v>
       </c>
       <c r="BP21" t="n">
-        <v>268.5</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="BQ21" t="n">
         <v>260</v>
@@ -11951,7 +11951,7 @@
         <v>0.3</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.8000000000000114</v>
+        <v>0.09999999999996634</v>
       </c>
       <c r="BW21" t="n">
         <v>338.6</v>
@@ -11960,7 +11960,7 @@
         <v>-0.4</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000223</v>
       </c>
       <c r="BZ21" t="n">
         <v>253.7</v>
@@ -11969,7 +11969,7 @@
         <v>-0.5</v>
       </c>
       <c r="CB21" t="n">
-        <v>1</v>
+        <v>0.7999999999998411</v>
       </c>
       <c r="CC21" t="n">
         <v>552.1</v>
@@ -12032,7 +12032,7 @@
         <v>0.3</v>
       </c>
       <c r="CW21" t="n">
-        <v>1.600000000000023</v>
+        <v>0.600000000000023</v>
       </c>
       <c r="CX21" t="n">
         <v>396.7</v>
@@ -12059,7 +12059,7 @@
         <v>-2.2</v>
       </c>
       <c r="DF21" t="n">
-        <v>438.7</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="DG21" t="n">
         <v>422.7</v>
@@ -12068,7 +12068,7 @@
         <v>-3.8</v>
       </c>
       <c r="DI21" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="DJ21" t="n">
         <v>19.1</v>
@@ -12077,7 +12077,7 @@
         <v>-2.6</v>
       </c>
       <c r="DL21" t="n">
-        <v>1.199999999999932</v>
+        <v>0.4999999999998865</v>
       </c>
       <c r="DM21" t="n">
         <v>344.9</v>
@@ -12095,7 +12095,7 @@
         <v>1.1</v>
       </c>
       <c r="DR21" t="n">
-        <v>0.6999999999999318</v>
+        <v>0.4999999999998854</v>
       </c>
       <c r="DS21" t="n">
         <v>436.5</v>
@@ -12122,7 +12122,7 @@
         <v>-1.7</v>
       </c>
       <c r="EA21" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="EB21" t="n">
         <v>204</v>
@@ -12291,7 +12291,7 @@
         <v>2.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1999999999999886</v>
+        <v>0.1999999999999602</v>
       </c>
       <c r="F22" t="n">
         <v>89.90000000000001</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.5</v>
+        <v>1.899999999999978</v>
       </c>
       <c r="O22" t="n">
         <v>255.2</v>
@@ -12327,7 +12327,7 @@
         <v>-1.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.49999999999909</v>
+        <v>2.199999999998912</v>
       </c>
       <c r="R22" t="n">
         <v>6635.3</v>
@@ -12336,7 +12336,7 @@
         <v>-0.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.5</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="U22" t="n">
         <v>323.6</v>
@@ -12354,7 +12354,7 @@
         <v>1.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5000000000000002</v>
+        <v>0.09999999999999454</v>
       </c>
       <c r="AA22" t="n">
         <v>203.1</v>
@@ -12363,7 +12363,7 @@
         <v>0.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.100000000000037</v>
       </c>
       <c r="AD22" t="n">
         <v>80.59999999999999</v>
@@ -12372,7 +12372,7 @@
         <v>-1.7</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000228</v>
       </c>
       <c r="AG22" t="n">
         <v>104.1</v>
@@ -12381,7 +12381,7 @@
         <v>1.1</v>
       </c>
       <c r="AI22" t="n">
-        <v>11.29999999999927</v>
+        <v>3.599999999998543</v>
       </c>
       <c r="AJ22" t="n">
         <v>7398.2</v>
@@ -12390,7 +12390,7 @@
         <v>-0.3</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.0999999999999979</v>
       </c>
       <c r="AM22" t="n">
         <v>19.6</v>
@@ -12399,7 +12399,7 @@
         <v>5.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="AP22" t="n">
         <v>26.6</v>
@@ -12417,7 +12417,7 @@
         <v>-0.6</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.5999999999999663</v>
+        <v>0.2999999999998696</v>
       </c>
       <c r="AV22" t="n">
         <v>153.9</v>
@@ -12426,7 +12426,7 @@
         <v>-0.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.1000000000000014</v>
+        <v>3.497202527569243e-15</v>
       </c>
       <c r="AY22" t="n">
         <v>25.9</v>
@@ -12435,7 +12435,7 @@
         <v>-4.8</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.6000000000000085</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="BB22" t="n">
         <v>84.3</v>
@@ -12462,7 +12462,7 @@
         <v>-0.6</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.8000000000000109</v>
+        <v>0.4000000000000328</v>
       </c>
       <c r="BK22" t="n">
         <v>413.2</v>
@@ -12498,7 +12498,7 @@
         <v>0.9</v>
       </c>
       <c r="BV22" t="n">
-        <v>339.4</v>
+        <v>338.5000000000001</v>
       </c>
       <c r="BW22" t="n">
         <v>339.6</v>
@@ -12507,7 +12507,7 @@
         <v>-0.4</v>
       </c>
       <c r="BY22" t="n">
-        <v>254</v>
+        <v>253.4</v>
       </c>
       <c r="BZ22" t="n">
         <v>254.3</v>
@@ -12534,7 +12534,7 @@
         <v>-6</v>
       </c>
       <c r="CH22" t="n">
-        <v>78.39999999999999</v>
+        <v>77.79999999999997</v>
       </c>
       <c r="CI22" t="n">
         <v>76.2</v>
@@ -12552,7 +12552,7 @@
         <v>-3.1</v>
       </c>
       <c r="CN22" t="n">
-        <v>1.499999999999943</v>
+        <v>1.299999999999897</v>
       </c>
       <c r="CO22" t="n">
         <v>266.6</v>
@@ -12561,7 +12561,7 @@
         <v>-3.7</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.2000000000000455</v>
+        <v>1.137007155094238e-13</v>
       </c>
       <c r="CR22" t="n">
         <v>240</v>
@@ -12579,7 +12579,7 @@
         <v>1.1</v>
       </c>
       <c r="CW22" t="n">
-        <v>1.599999999999966</v>
+        <v>0.9999999999999429</v>
       </c>
       <c r="CX22" t="n">
         <v>398.3</v>
@@ -12588,7 +12588,7 @@
         <v>2.2</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999443</v>
       </c>
       <c r="DA22" t="n">
         <v>94.3</v>
@@ -12597,7 +12597,7 @@
         <v>-0.9</v>
       </c>
       <c r="DC22" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="DD22" t="n">
         <v>107.1</v>
@@ -12606,7 +12606,7 @@
         <v>-2.4</v>
       </c>
       <c r="DF22" t="n">
-        <v>1.600000000000023</v>
+        <v>0.8000000000000116</v>
       </c>
       <c r="DG22" t="n">
         <v>423.4</v>
@@ -12615,7 +12615,7 @@
         <v>-3.5</v>
       </c>
       <c r="DI22" t="n">
-        <v>19.4</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="DJ22" t="n">
         <v>19.2</v>
@@ -12624,7 +12624,7 @@
         <v>-2</v>
       </c>
       <c r="DL22" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.5000000000001132</v>
       </c>
       <c r="DM22" t="n">
         <v>346.2</v>
@@ -12633,7 +12633,7 @@
         <v>1.4</v>
       </c>
       <c r="DO22" t="n">
-        <v>0.7999999999999969</v>
+        <v>0.2000000000000025</v>
       </c>
       <c r="DP22" t="n">
         <v>112.1</v>
@@ -12642,7 +12642,7 @@
         <v>1.3</v>
       </c>
       <c r="DR22" t="n">
-        <v>2.600000000000023</v>
+        <v>1.300000000000182</v>
       </c>
       <c r="DS22" t="n">
         <v>437.5</v>
@@ -12651,7 +12651,7 @@
         <v>-0.8</v>
       </c>
       <c r="DU22" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.497202527569243e-15</v>
       </c>
       <c r="DV22" t="n">
         <v>27.5</v>
@@ -12669,7 +12669,7 @@
         <v>-1.4</v>
       </c>
       <c r="EA22" t="n">
-        <v>0.5</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="EB22" t="n">
         <v>204.2</v>
@@ -12678,7 +12678,7 @@
         <v>-2</v>
       </c>
       <c r="ED22" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="EE22" t="n">
         <v>27.1</v>
